--- a/biology/Zoologie/Bothrops_brazili/Bothrops_brazili.xlsx
+++ b/biology/Zoologie/Bothrops_brazili/Bothrops_brazili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops brazili est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops brazili est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne au sud de l'Amazone [2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne au sud de l'Amazone  :
 au Brésil dans les États du Pará, d'Amazonas, du Rondônia et dans le Nord du Mato Grosso ;
 dans l'est de l'Équateur ;
 dans l'Est du Pérou ;
 dans le nord de la Bolivie.
-Cette espèce était auparavant considérée comme présente dans toute l'Amazonie. Depuis 2021, les individus présents au nord de l'Amazone sont considérés comme appartenant à une autre espèce, Bothrops oligobalius[2].
+Cette espèce était auparavant considérée comme présente dans toute l'Amazonie. Depuis 2021, les individus présents au nord de l'Amazone sont considérés comme appartenant à une autre espèce, Bothrops oligobalius.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Bothrops brazili[3], un mâle adulte, mesure 685 mm dont 70 mm pour la queue. C'est un serpent venimeux vivipare.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Bothrops brazili, un mâle adulte, mesure 685 mm dont 70 mm pour la queue. C'est un serpent venimeux vivipare.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent se nourrit de petits mammifères (opossums, rats, écureuils, souris) et d'oiseaux.
 </t>
@@ -609,7 +627,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vital Brazil.
 </t>
@@ -640,7 +660,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amaral, 1923 : New genera and species of snakes. Proceedings of the New England Zoological Club, vol. 8, p. 85-105 (texte intégral).
 Hoge, 1954 "1953" : A new Bothrops from Brazil - Bothrops brazili, sp. nov. Memórias Do Instituto Butantan, vol. 25, p. 15-21.</t>
